--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -4,21 +4,83 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>To do list:</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Data Base</t>
+  </si>
+  <si>
+    <t>Recommendation System</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>Model2</t>
+  </si>
+  <si>
+    <t>Model3</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>HTML page</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>offline</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Find topics</t>
+  </si>
+  <si>
+    <t>data collection</t>
+  </si>
+  <si>
+    <t>http://surpriselib.com/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -32,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -40,12 +102,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -61,6 +254,246 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3375660" y="381000"/>
+          <a:ext cx="152400" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4503420" y="342900"/>
+          <a:ext cx="213360" cy="1226820"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5737860" y="1920240"/>
+          <a:ext cx="1188720" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5318760" y="419100"/>
+          <a:ext cx="83820" cy="3360420"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5753100" y="2484120"/>
+          <a:ext cx="1630680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,14 +783,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43983</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:Q23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="5" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="5"/>
+      <c r="F10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="18" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -64,13 +64,34 @@
   </si>
   <si>
     <t>http://surpriselib.com/</t>
+  </si>
+  <si>
+    <t>Go Through Project Spec</t>
+  </si>
+  <si>
+    <t>Select Topic - Recommender engine: create application for making recommendations based on user preferences.</t>
+  </si>
+  <si>
+    <t>Attendance:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vincent ,Tommy, Yvonne</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>Decide Project Process and tasks</t>
+  </si>
+  <si>
+    <t>Research,Find topics,data collection,http://surpriselib.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +102,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -239,6 +268,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,37 +815,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="16">
         <v>43976</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -821,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,7 +956,7 @@
   <dimension ref="E1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Minutes " sheetId="1" r:id="rId1"/>
+    <sheet name="Plans" sheetId="2" r:id="rId2"/>
+    <sheet name="Architecture" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -81,10 +81,25 @@
     <t>Activities</t>
   </si>
   <si>
-    <t>Decide Project Process and tasks</t>
-  </si>
-  <si>
     <t>Research,Find topics,data collection,http://surpriselib.com/</t>
+  </si>
+  <si>
+    <t>Decide Project Management, Process and tasks</t>
+  </si>
+  <si>
+    <t>Plans</t>
+  </si>
+  <si>
+    <t>Machine learning</t>
+  </si>
+  <si>
+    <t>Have disccsused datasets selection</t>
+  </si>
+  <si>
+    <t>Going to be familiar with Superise Lib</t>
+  </si>
+  <si>
+    <t>Play with data , Superise Lib</t>
   </si>
 </sst>
 </file>
@@ -815,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,7 +878,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1"/>
     </row>
@@ -877,7 +892,58 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="16">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -888,10 +954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -902,6 +968,11 @@
     <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43976</v>
@@ -929,6 +1000,9 @@
       <c r="B3" s="1">
         <v>43990</v>
       </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -948,6 +1022,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -956,7 +1031,7 @@
   <dimension ref="E1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="D5" sqref="D5:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Minutes " sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -100,6 +100,48 @@
   </si>
   <si>
     <t>Play with data , Superise Lib</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>TOP 10</t>
+  </si>
+  <si>
+    <t>RECOMMENDATION</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>RESPONSE TIME</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>CLEAR</t>
+  </si>
+  <si>
+    <t>IFRAME</t>
   </si>
 </sst>
 </file>
@@ -130,15 +172,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -263,11 +317,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -286,6 +446,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,6 +710,44 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>319930</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3918857" y="7119257"/>
+          <a:ext cx="6775159" cy="5042263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -832,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1028,13 +1238,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:Q23"/>
+  <dimension ref="C1:R80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:J16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="5:17" x14ac:dyDescent="0.3">
@@ -1232,8 +1445,8 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="18" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1241,7 +1454,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1249,7 +1462,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
@@ -1259,7 +1472,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1267,7 +1480,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -1275,6 +1488,985 @@
       <c r="I23" s="9"/>
       <c r="J23" s="10"/>
     </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="H25" s="18"/>
+      <c r="I25" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="H26" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="25"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="20"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C30" s="21"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="22"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C31" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="22"/>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C32" s="21"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="22"/>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C33" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="22"/>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C34" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="22"/>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="22"/>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="22"/>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="22"/>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="22"/>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="22"/>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="22"/>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="22"/>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="22"/>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="22"/>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="22"/>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="22"/>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="22"/>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C47" s="21"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="22"/>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C48" s="21"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="22"/>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C49" s="21"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="22"/>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C50" s="21"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="29"/>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C51" s="21"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="22"/>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C52" s="21"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="22"/>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C53" s="21"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="22"/>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C54" s="21"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="22"/>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C55" s="21"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="22"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C56" s="21"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="22"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C57" s="21"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="22"/>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C58" s="21"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="22"/>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C59" s="21"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="22"/>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C60" s="21"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="22"/>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C61" s="21"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="22"/>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C62" s="21"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="22"/>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C63" s="21"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="22"/>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C64" s="21"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="22"/>
+    </row>
+    <row r="65" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C65" s="21"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="22"/>
+    </row>
+    <row r="66" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C66" s="21"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="22"/>
+    </row>
+    <row r="67" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C67" s="21"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="22"/>
+    </row>
+    <row r="68" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C68" s="21"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="22"/>
+    </row>
+    <row r="69" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C69" s="21"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="22"/>
+    </row>
+    <row r="70" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C70" s="21"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="22"/>
+    </row>
+    <row r="71" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C71" s="21"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="22"/>
+    </row>
+    <row r="72" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C72" s="21"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="22"/>
+    </row>
+    <row r="73" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C73" s="21"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="22"/>
+    </row>
+    <row r="74" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C74" s="21"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="22"/>
+    </row>
+    <row r="75" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C75" s="21"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="22"/>
+    </row>
+    <row r="76" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C76" s="21"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="22"/>
+    </row>
+    <row r="77" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C77" s="21"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="22"/>
+    </row>
+    <row r="78" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C78" s="21"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="22"/>
+    </row>
+    <row r="79" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C79" s="21"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="22"/>
+    </row>
+    <row r="80" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C80" s="23"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -750,6 +750,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>183857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5050972" y="12681857"/>
+          <a:ext cx="3004456" cy="1838486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1240,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T57" sqref="T57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
